--- a/TNXP_Discontiue_2H/Task.xlsx
+++ b/TNXP_Discontiue_2H/Task.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bom_octopart_price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ppn" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1838,4 +1839,1223 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MC33880PEW</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P5010NSE1VNB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC908QT4AMDWE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC908GZ32VFAER</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P1020NSE2DFB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P1022NSN2HFB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P1015NSE5FFB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NX3L1G66GM,132</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MC908QY2ACDTE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MC8641DTVU1000GE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MC68SEC000CAA20,NXP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PCA9306DC,125</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P1021NSN2HFB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MC908QY1ACDTER</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MC908AP8CFBER</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MC68302RC25C</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MC9328MX21SVKR2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MC68EN360CAI25L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P2010NXN2HFC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A2I09VD015GNR1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MC35XS3500HFKR2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MC908QT4AMDWER</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MC33GD3100A3EK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P1010NSE5HFA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MC68SEC000AA10R2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KMC7448VU1267ND</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MC33908AE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MC908QT1ACDWE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P1017NSE5CFB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MC33907AER2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MC33GD3100EKR2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCA9535CPW,112</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P2010NSN2NHC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P1010NSN5HHB</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MC68SEC000AA16R2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KMC68302EH25C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MC68360VR25LR2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NCX8193GUX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NCX2200GM,115</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>P1020NSN2FFB</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MC908LJ12CPBE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NX5P2924BUKZ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MC908QY1AMDWER</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>P3041NXN7NNC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KMC68LC302AF20CT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MC68302AG20CB1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MC34905CS3EKR2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MC33879APEK</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>P5010NXE1TNB</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NX3L4357GM,132</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>P5010NXN1VNB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MC34712EPR2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MC40XS6500CEK</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>P4080NSN7PNC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MC68360CVR25L</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MC25XS6300EKR2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MPXM2010DT1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>P1022NSN2MHB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MC7447ATHX1167NB</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NTM88H155T1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NX3DV3899HR,115</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MC68HC11E0CFNE3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PCA9515D,112</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P1011NXE2FFB</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>P2040NSE7HLC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PCA9512AD,112</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>P4080NXE7PNAC</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>P1015NXE5DFB</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>KMC7448VU1700LD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MC9RS08KB2CSCR</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>P1010NXE5KHB</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P2020NSN2KFC</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MC8640DTHX1000HE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MC860ENCZQ50D4R2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MC33879APEK-R2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MC34904C5EKR2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MC9328MX21SCVK</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MC68302CEH16C</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NX3L2267SGU,115</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MC908KX2MDWER</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NX5P2924CUKZ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MC34905CS5EKR2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MPXHZ6250A6T1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>P2010NSE2KHC</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MC68HCP11E1CFNE3</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>P1012NSN2DFB</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PCA9539BSHP</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PCA9513AD,112</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>KMC68302AG20C</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MC9RS08KB8CWJ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MC34708VKR2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>P1010NXE5HHA</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NX3P191UK,012</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>P4080NSN7PNAC</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MC68EN360CVR25L</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MC68EN360RC33L</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MC7457RX867NC</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MC34827A1EPR2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>P2040NSN7MMC</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MC7457VG1267LC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>